--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="167">
   <si>
     <t>link</t>
   </si>
@@ -107,6 +107,42 @@
   </si>
   <si>
     <t>countries_3_amount</t>
+  </si>
+  <si>
+    <t>countries_4</t>
+  </si>
+  <si>
+    <t>countries_4_currency</t>
+  </si>
+  <si>
+    <t>countries_4_amount</t>
+  </si>
+  <si>
+    <t>countries_5</t>
+  </si>
+  <si>
+    <t>countries_5_currency</t>
+  </si>
+  <si>
+    <t>countries_5_amount</t>
+  </si>
+  <si>
+    <t>countries_6</t>
+  </si>
+  <si>
+    <t>countries_6_currency</t>
+  </si>
+  <si>
+    <t>countries_6_amount</t>
+  </si>
+  <si>
+    <t>countries_7</t>
+  </si>
+  <si>
+    <t>countries_7_currency</t>
+  </si>
+  <si>
+    <t>countries_7_amount</t>
   </si>
   <si>
     <t>sectors_1</t>
@@ -372,6 +408,118 @@
   </si>
   <si>
     <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>https://www.eib.org/en/projects/all/20210604</t>
+  </si>
+  <si>
+    <t>5 October 2021</t>
+  </si>
+  <si>
+    <t>02/12/2021</t>
+  </si>
+  <si>
+    <t>20210604</t>
+  </si>
+  <si>
+    <t>ILLIMITY EGF ENHANCED SUPPLY CHAIN SUPPORT</t>
+  </si>
+  <si>
+    <t>ILLIMITY BANK SPA</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Reverse factoring operation under the European Guarantee Fund (EGF) of trade payables of Italian corporates and mid-caps, improving access to finance of their small and medium-sized enterprise (SME) suppliers, but possibly also mid-caps and large corporates.</t>
+  </si>
+  <si>
+    <t>The operation will allow an increase in the reverse factoring volumes available for suppliers to identified mid-cap and large corporate buyers enabling access to finance at favourable financing conditions for SME and mid-cap final beneficiaries.</t>
+  </si>
+  <si>
+    <t>The COVID19 pandemic constitutes an unprecedented challenge with very severe socio-economic consequences. One of the objectives of the EGF is to respond to the economic impact of the COVID19 pandemic outbreak, by ensuring that SMEs in the participating Member States have sufficient liquidity available and access to finance to weather the rapidly unfolding crisis, and are able to continue their development in mid/long term. The project will be implemented in Italy, where SMEs are at a greater disadvantage when it comes to access to finance than elsewhere in the EU. Supply chain guarantees, by allowing a faster collection of the invoices issued by a client, are an effective tool to ease financing constraints that, especially in Italy, affect SMEs.</t>
+  </si>
+  <si>
+    <t>The EIB will require that Illimity Bank SpA take all the required measures to ensure that final recipients (SMEs and mid-caps) meet the EIB's environmental standards and related EU/national legislation.</t>
+  </si>
+  <si>
+    <t>The EIB will require that Illimity Bank SpA. take all the required measures to ensure that final recipients (SMEs and mid-caps) meet the EIB's procurement standards and related EU/national legislation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLIMITY EGF ENHANCED SUPPLY CHAIN SUPPORT: https://www.eib.org/en/projects/pipelines/all/20210604 || Italy: €1.2 billion to support Italian companies with EIB Group-illimity agreement under European Guarantee Fund (EGF): https://www.eib.org/en/press/all/2021-445-italy-eur1-2-billion-to-support-italian-companies-with-eib-group-illimity-agreement-under-european-guarantee-fund-egf || EGF - EU PL RISK SHARING INSTRUMENT: https://www.eib.org/en/projects/pipelines/all/20200618 || </t>
+  </si>
+  <si>
+    <t>60,000,000</t>
+  </si>
+  <si>
+    <t>Credit lines</t>
+  </si>
+  <si>
+    <t>https://www.eib.org/en/projects/all/20200045</t>
+  </si>
+  <si>
+    <t>18 January 2021</t>
+  </si>
+  <si>
+    <t>07/06/2022</t>
+  </si>
+  <si>
+    <t>20200045</t>
+  </si>
+  <si>
+    <t>COLLE RENTAL &amp; SALES ELECTRIFICATION</t>
+  </si>
+  <si>
+    <t>HFC HOLDING BV</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Germany
+The Netherlands</t>
+  </si>
+  <si>
+    <t>The project consists of the 2020-23 investments in new electric rental equipment in the EU by an innovative mid-cap. The main customer segments are within the construction sector but the customer base also includes installation companies, industrial plants, shipyards, energy and utilities, national and local authorities, event organisers and private households.</t>
+  </si>
+  <si>
+    <t>The objective is to support an innovative EU mid-cap company, focusing on rental and sales of equipment for lifting, handling and construction and modular space rental in the BENELUX and DACH markets.</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>Link to source</t>
+  </si>
+  <si>
+    <t>Summary sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLE RENTAL &amp; SALES ELECTRIFICATION: https://www.eib.org/en/projects/pipelines/all/20200045 || Environmental and Social Data Sheet (ESDS) - COLLE RENTAL &amp; SALES ELECTRIFICATION: https://www.eib.org/en/registers/all/132594009 || MIDCAP PROGRAMME LOAN BENELUX 2: https://www.eib.org/en/scoreboards/all/90596016 || MIDCAP PROGRAMME LOAN BENELUX 2: https://www.eib.org/en/projects/pipelines/all/20180368 || </t>
+  </si>
+  <si>
+    <t>50,000,000</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>35,000,000</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Administrative and support service activities</t>
   </si>
 </sst>
 </file>
@@ -716,13 +864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,675 +1003,1231 @@
       <c r="AR1" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:56">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" t="s">
+        <v>96</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="R2" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="S2" t="s">
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="T2" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="U2" t="s">
+      <c r="G5" t="s">
         <v>62</v>
       </c>
-      <c r="V2" t="s">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR2" t="b">
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56">
+      <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s">
+        <v>144</v>
+      </c>
+      <c r="W7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56">
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>154</v>
+      </c>
+      <c r="O8" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" t="s">
+        <v>158</v>
+      </c>
+      <c r="S8" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s">
+        <v>161</v>
+      </c>
+      <c r="W8" t="s">
+        <v>162</v>
+      </c>
+      <c r="X8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD8" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O4" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44">
-      <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" t="s">
-        <v>115</v>
-      </c>
-      <c r="U6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" t="s">
-        <v>116</v>
-      </c>
-      <c r="W6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1533,6 +2237,8 @@
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="181">
   <si>
     <t>link</t>
   </si>
@@ -492,13 +492,10 @@
     <t>The objective is to support an innovative EU mid-cap company, focusing on rental and sales of equipment for lifting, handling and construction and modular space rental in the BENELUX and DACH markets.</t>
   </si>
   <si>
-    <t>Procurement</t>
-  </si>
-  <si>
-    <t>Link to source</t>
-  </si>
-  <si>
-    <t>Summary sheet</t>
+    <t>The project concerns capital expenditures on new rental equipment; the rental activities will be carried out in existing facilities already authorised for the same purpose and would not require an environmental impact assessment (EIA) under the Directive 2014/52/EU.</t>
+  </si>
+  <si>
+    <t>The Promoter has been assessed by EIB as being a private company not operating in the utilities sector and not having a status of a contracting entity, and is thus not subject to EU rules on public procurement.</t>
   </si>
   <si>
     <t xml:space="preserve">COLLE RENTAL &amp; SALES ELECTRIFICATION: https://www.eib.org/en/projects/pipelines/all/20200045 || Environmental and Social Data Sheet (ESDS) - COLLE RENTAL &amp; SALES ELECTRIFICATION: https://www.eib.org/en/registers/all/132594009 || MIDCAP PROGRAMME LOAN BENELUX 2: https://www.eib.org/en/scoreboards/all/90596016 || MIDCAP PROGRAMME LOAN BENELUX 2: https://www.eib.org/en/projects/pipelines/all/20180368 || </t>
@@ -520,6 +517,61 @@
   </si>
   <si>
     <t>Administrative and support service activities</t>
+  </si>
+  <si>
+    <t>https://www.eib.org/en/projects/all/20200483</t>
+  </si>
+  <si>
+    <t>28 October 2020</t>
+  </si>
+  <si>
+    <t>28/02/2022</t>
+  </si>
+  <si>
+    <t>20200483</t>
+  </si>
+  <si>
+    <t>KAYRROS ARTIFICIAL INTELLIGENCE (EGF VD)</t>
+  </si>
+  <si>
+    <t>KAYRROS SAS</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Kayrros is an asset observation platform powered by modern technologies such as data analytics, artificial intelligence (AI) and computer vision, that uses several data sources, including satellite images, Internet of Things (IoT) devices, sensors, mobile devices, geolocation, social media, web scraping, etc. to provide intelligence to private and public decision-makers.</t>
+  </si>
+  <si>
+    <t>The project will finance investments for research, development and innovation (RDI) activities related to the development of data analytics and artificial intelligence, as well as on IT integration, to consolidate its first-mover advantage in the asset-observation data analytics market.</t>
+  </si>
+  <si>
+    <t>The promoter is an innovative start-up with well-developed technology capabilities, an organisational structure in support of its ambitious growth strategy, and a strong R&amp;D team. The project will help the promoter pursue its R&amp;D investments, accelerate the development and the deployment of new use cases, and build scale. The project supports the policy objective of innovation and
+digitalisation in the asset observation domain, which has long been suffering
+from imperfect and opaque information. By supporting the company's investments
+in R&amp;D and its expansion into new applications, including environment and
+climate, risk management and the monitoring of the global supply chain, the
+project also addresses knowledge externalities and contributes to public goods.
+The promoter's strategy depends on significant growth-related investments in
+order to achieve its business plan. By addressing a market gap in available financing
+options, EIB financing allows the company to finance its investment plan and
+accelerate the deployment of its growth strategy. EIB contribution is positive because of a positive crowd-in effect and innovative structure adapted
+to the risk profile of this Company given the early stage of the company.</t>
+  </si>
+  <si>
+    <t>The project activities do not fall under Annexes I or II of the EU Directive 2014/52/EU amending the EIA Directive 2011/92/EU. The project will be carried out in existing facilities, already authorised, that will not change their scope due to the project. As such, the project activities are not subject to a mandatory environmental impact assessment (EIA).</t>
+  </si>
+  <si>
+    <t>The Promoter is a private company not operating in the utilities sector and not having the status of a contracting entity, and is thus not subject to EU rules on public procurement. Under these conditions, the procurement procedures followed by the Promoter are suitable for the project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAYRROS ARTIFICIAL INTELLIGENCE (EGF VD): https://www.eib.org/en/projects/pipelines/all/20200483 || France: Climate technology specialist Kayrros receives €15 million EIB loan: https://www.eib.org/en/press/all/2022-138-france-kayrros-specialise-dans-la-tech-climatique-beneficie-d-un-pret-de-15-millions-d-euros-de-la-bei || </t>
+  </si>
+  <si>
+    <t>Information and communication</t>
   </si>
 </sst>
 </file>
@@ -864,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2110,25 +2162,25 @@
         <v>156</v>
       </c>
       <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" t="s">
         <v>157</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>158</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>159</v>
-      </c>
-      <c r="T8" t="s">
-        <v>160</v>
       </c>
       <c r="U8" t="s">
         <v>74</v>
       </c>
       <c r="V8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" t="s">
         <v>161</v>
-      </c>
-      <c r="W8" t="s">
-        <v>162</v>
       </c>
       <c r="X8" t="s">
         <v>74</v>
@@ -2137,70 +2189,70 @@
         <v>128</v>
       </c>
       <c r="Z8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA8" t="s">
         <v>74</v>
       </c>
       <c r="AB8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR8" t="s">
         <v>164</v>
       </c>
-      <c r="AC8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>165</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>166</v>
       </c>
       <c r="AT8" t="s">
         <v>74</v>
       </c>
       <c r="AU8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AV8" t="s">
         <v>76</v>
@@ -2228,6 +2280,176 @@
       </c>
       <c r="BD8" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56">
+      <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O9" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9" t="s">
+        <v>177</v>
+      </c>
+      <c r="S9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" t="s">
+        <v>128</v>
+      </c>
+      <c r="W9" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2239,6 +2461,7 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
